--- a/2019-01-12 15-08-15_plot_stats/length_of_blockchain.xlsx
+++ b/2019-01-12 15-08-15_plot_stats/length_of_blockchain.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\GitHub\Blockchain-Simulator\2019-01-12 15-08-15_plot_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48FCFE87-650E-4539-8B1E-6B4B8119D835}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE53ED2-1D54-4017-8D4C-461E738BF0E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11595"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="length_of_blockchain" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">length_of_blockchain!$A$2:$A$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">length_of_blockchain!$D$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">length_of_blockchain!$P$2:$P$15</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">length_of_blockchain!$D$2:$D$15</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">length_of_blockchain!$G$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">length_of_blockchain!$G$2:$G$15</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">length_of_blockchain!$J$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">length_of_blockchain!$J$2:$J$15</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">length_of_blockchain!$M$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">length_of_blockchain!$M$2:$M$15</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">length_of_blockchain!$P$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -115,7 +128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4261,8 +4274,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4279,17 +4293,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>length_of_blockchain!$A$2:$A$15</c:f>
@@ -4391,7 +4403,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-95DA-4605-BEF5-4C25D9D11ACD}"/>
@@ -4413,17 +4424,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>length_of_blockchain!$A$2:$A$15</c:f>
@@ -4525,7 +4534,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-95DA-4605-BEF5-4C25D9D11ACD}"/>
@@ -4547,17 +4555,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>length_of_blockchain!$A$2:$A$15</c:f>
@@ -4659,7 +4665,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-95DA-4605-BEF5-4C25D9D11ACD}"/>
@@ -4681,17 +4686,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>length_of_blockchain!$A$2:$A$15</c:f>
@@ -4793,7 +4796,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-95DA-4605-BEF5-4C25D9D11ACD}"/>
@@ -4815,17 +4817,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>length_of_blockchain!$A$2:$A$15</c:f>
@@ -4927,7 +4927,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-95DA-4605-BEF5-4C25D9D11ACD}"/>
@@ -4942,10 +4941,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1783801391"/>
         <c:axId val="1839924127"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1783801391"/>
         <c:scaling>
@@ -5213,8 +5212,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5231,17 +5231,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>length_of_blockchain!$A$2:$A$15</c:f>
@@ -5343,7 +5341,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D09E-45D3-81E8-CACCEC646087}"/>
@@ -5365,17 +5362,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>length_of_blockchain!$A$2:$A$15</c:f>
@@ -5477,7 +5472,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D09E-45D3-81E8-CACCEC646087}"/>
@@ -5499,17 +5493,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>length_of_blockchain!$A$2:$A$15</c:f>
@@ -5611,7 +5603,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D09E-45D3-81E8-CACCEC646087}"/>
@@ -5633,17 +5624,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>length_of_blockchain!$A$2:$A$15</c:f>
@@ -5745,7 +5734,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D09E-45D3-81E8-CACCEC646087}"/>
@@ -5767,17 +5755,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>length_of_blockchain!$A$2:$A$15</c:f>
@@ -5879,7 +5865,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D09E-45D3-81E8-CACCEC646087}"/>
@@ -5894,10 +5879,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1836739759"/>
         <c:axId val="1792860287"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1836739759"/>
         <c:scaling>
@@ -6165,8 +6150,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -6183,17 +6169,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>length_of_blockchain!$A$2:$A$15</c:f>
@@ -6295,7 +6279,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-80F2-4C96-ABC6-11AAF5D10F00}"/>
@@ -6317,17 +6300,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>length_of_blockchain!$A$2:$A$15</c:f>
@@ -6429,7 +6410,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-80F2-4C96-ABC6-11AAF5D10F00}"/>
@@ -6451,17 +6431,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>length_of_blockchain!$A$2:$A$15</c:f>
@@ -6563,7 +6541,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-80F2-4C96-ABC6-11AAF5D10F00}"/>
@@ -6585,17 +6562,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>length_of_blockchain!$A$2:$A$15</c:f>
@@ -6697,7 +6672,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-80F2-4C96-ABC6-11AAF5D10F00}"/>
@@ -6719,17 +6693,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>length_of_blockchain!$A$2:$A$15</c:f>
@@ -6831,7 +6803,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-80F2-4C96-ABC6-11AAF5D10F00}"/>
@@ -6846,10 +6817,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1834215487"/>
         <c:axId val="1792862783"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1834215487"/>
         <c:scaling>
@@ -12077,11 +12048,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
